--- a/resources/experiment 1/metrics/MAPE/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2031129324772.447</v>
+        <v>17343333720216.06</v>
       </c>
       <c r="C3" t="n">
-        <v>2031129324772.447</v>
+        <v>20837433634322.24</v>
       </c>
       <c r="D3" t="n">
-        <v>2031129324772.447</v>
+        <v>3749834179261.602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10736853140889.46</v>
+        <v>15627226451574.46</v>
       </c>
       <c r="C4" t="n">
-        <v>10736853140889.46</v>
+        <v>4190871150888.41</v>
       </c>
       <c r="D4" t="n">
-        <v>10736853140889.46</v>
+        <v>2584225138292.988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12173687968259.03</v>
+        <v>371090696275807.1</v>
       </c>
       <c r="C5" t="n">
-        <v>12173687968259.03</v>
+        <v>95342836577320.12</v>
       </c>
       <c r="D5" t="n">
-        <v>12173687968259.03</v>
+        <v>115422330140575.9</v>
       </c>
     </row>
   </sheetData>
